--- a/data_analysis/assets/output_files/marks_distribution/E_marks_distribution_report.xlsx
+++ b/data_analysis/assets/output_files/marks_distribution/E_marks_distribution_report.xlsx
@@ -14,27 +14,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
-    <t>BSA210</t>
+    <t>BSA408</t>
   </si>
   <si>
-    <t>BSA211</t>
+    <t>BSA410</t>
   </si>
   <si>
-    <t>BSA212</t>
+    <t>BSA412</t>
   </si>
   <si>
-    <t>BSA256</t>
+    <t>BSA460</t>
   </si>
   <si>
-    <t>BSA257</t>
+    <t>BSA461</t>
   </si>
   <si>
-    <t>BSA258</t>
+    <t>BSA462</t>
   </si>
   <si>
-    <t>TMUGE201</t>
+    <t>BSA463</t>
+  </si>
+  <si>
+    <t>TMUGE401</t>
   </si>
   <si>
     <t>0-10</t>
@@ -161,7 +164,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>BSA210</c:v>
+                  <c:v>BSA408</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -219,16 +222,16 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -243,7 +246,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>BSA211</c:v>
+                  <c:v>BSA410</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -298,19 +301,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -325,7 +328,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>BSA212</c:v>
+                  <c:v>BSA412</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -377,22 +380,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -407,7 +410,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>BSA256</c:v>
+                  <c:v>BSA460</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -465,13 +468,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8</c:v>
+                <c:pt idx="4">
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -489,7 +492,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>BSA257</c:v>
+                  <c:v>BSA461</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -550,10 +553,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>17</c:v>
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -571,7 +574,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>BSA258</c:v>
+                  <c:v>BSA462</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -632,10 +635,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25</c:v>
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -653,7 +656,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TMUGE201</c:v>
+                  <c:v>BSA463</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -708,19 +711,101 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'E_distribution'!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TMUGE401</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:numFmt formatCode="0" sourceLinked="0"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" baseline="0"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showVal val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'E_distribution'!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0-10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10-20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20-30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30-40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40-50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50-60</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'E_distribution'!$I$2:$I$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1126,13 +1211,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1154,10 +1239,13 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1166,7 +1254,7 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1180,19 +1268,22 @@
       <c r="H2">
         <v>0</v>
       </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1204,99 +1295,111 @@
         <v>0</v>
       </c>
       <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>9</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>13</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
         <v>3</v>
       </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>11</v>
+      </c>
+      <c r="E6">
+        <v>17</v>
+      </c>
+      <c r="F6">
+        <v>18</v>
+      </c>
+      <c r="G6">
+        <v>19</v>
+      </c>
+      <c r="H6">
+        <v>17</v>
+      </c>
+      <c r="I6">
+        <v>16</v>
+      </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4">
-        <v>7</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4">
-        <v>18</v>
-      </c>
-      <c r="E4">
-        <v>5</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5">
-        <v>22</v>
-      </c>
-      <c r="C5">
-        <v>17</v>
-      </c>
-      <c r="D5">
-        <v>10</v>
-      </c>
-      <c r="E5">
-        <v>21</v>
-      </c>
-      <c r="F5">
-        <v>24</v>
-      </c>
-      <c r="G5">
-        <v>14</v>
-      </c>
-      <c r="H5">
+    <row r="7" spans="1:9">
+      <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6">
-        <v>8</v>
-      </c>
-      <c r="C6">
-        <v>14</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6">
-        <v>8</v>
-      </c>
-      <c r="F6">
-        <v>17</v>
-      </c>
-      <c r="G6">
-        <v>25</v>
-      </c>
-      <c r="H6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
         <v>1</v>
       </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
       <c r="D7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1308,7 +1411,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
